--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1296117.671781524</v>
+        <v>1345952.336057576</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484448</v>
+        <v>492028.9342484445</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6766516.085837218</v>
+        <v>6779142.349374141</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>357.6568314715604</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>322.96392688766</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45.16839904902798</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -829,10 +829,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>190.6401627690823</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>317.3612439064108</v>
+        <v>352.5381369820045</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -908,10 +908,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -962,7 +962,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1054,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>14.82530121476855</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1145,13 +1145,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>386.194285896733</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>363.9257295402527</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1297,16 +1297,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>21.9933514974454</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>203.2613507217559</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,10 +1351,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>154.0254420454369</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1427,7 +1427,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>90.97964783089047</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1619,7 +1619,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>129.3727203283471</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1658,10 +1658,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>206.485501777224</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1774,13 +1774,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>100.7864841659571</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>154.0254420454376</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1859,7 +1859,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>18.22772027659405</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436911</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2084,7 +2084,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>163.5395542426782</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>133.208388787587</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2299,13 +2299,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>216.3562841193493</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>27.97358346682219</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225728</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>136.0564930766997</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,10 +2767,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855482</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -3001,16 +3001,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436915</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>125.6544692828926</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3199,13 +3199,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3.139541480022785</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3253,7 +3253,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>180.8611112561206</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3317,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556909</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3433,7 +3433,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>30.8054975737744</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3442,7 +3442,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>83.49545568307933</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3487,10 +3487,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791304972</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864819</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3664,7 +3664,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>67.65667327773704</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3673,13 +3673,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>128.7778691150971</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,10 +3721,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3910,7 +3910,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>20.28369113775165</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -4141,13 +4141,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978601</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244294</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -4186,7 +4186,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4198,10 +4198,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>23.92593778768446</v>
       </c>
       <c r="Y46" t="n">
-        <v>81.49380289235462</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>2073.9318711816</v>
       </c>
       <c r="C2" t="n">
-        <v>1216.618961230546</v>
+        <v>1635.789398365023</v>
       </c>
       <c r="D2" t="n">
-        <v>890.3927724551322</v>
+        <v>1199.879613539468</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>766.1048686977629</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.2374391069706</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.2374391069706</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>85.7575026250606</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>693.4601489336222</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>693.4601489336222</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>693.4601489336222</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>693.4601489336222</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1301.162795242184</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1908.865441550746</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>2454.549176960777</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111165</v>
+        <v>2439.447117580492</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>2435.20139792055</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414796</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781219</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246752</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516289</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677905</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397434</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.1709577106444</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940187</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.068709842022</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212428</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>858.7506050139928</v>
+        <v>899.603321627118</v>
       </c>
       <c r="C4" t="n">
-        <v>686.1888934972177</v>
+        <v>727.041610110343</v>
       </c>
       <c r="D4" t="n">
-        <v>520.3109006987404</v>
+        <v>561.1636173118657</v>
       </c>
       <c r="E4" t="n">
-        <v>350.5528969494776</v>
+        <v>391.405613562603</v>
       </c>
       <c r="F4" t="n">
-        <v>173.8458429112338</v>
+        <v>214.6985595243592</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>323.8657391213224</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>742.0756208892834</v>
       </c>
       <c r="M4" t="n">
-        <v>395.2818083374338</v>
+        <v>1201.559488070196</v>
       </c>
       <c r="N4" t="n">
-        <v>815.3347072823371</v>
+        <v>1643.818291227841</v>
       </c>
       <c r="O4" t="n">
-        <v>1235.003956508118</v>
+        <v>2063.487540453623</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2410.994434423965</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214712</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2274.705037512709</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2028.825591091164</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>1836.259770112293</v>
       </c>
       <c r="V4" t="n">
-        <v>1131.794921203953</v>
+        <v>1836.259770112293</v>
       </c>
       <c r="W4" t="n">
-        <v>1131.794921203953</v>
+        <v>1564.233365698585</v>
       </c>
       <c r="X4" t="n">
-        <v>1131.794921203953</v>
+        <v>1318.841611031997</v>
       </c>
       <c r="Y4" t="n">
-        <v>904.3752505180614</v>
+        <v>1091.421940346105</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>952.4132834144444</v>
+        <v>1671.95961582883</v>
       </c>
       <c r="C5" t="n">
-        <v>523.8316091517128</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D5" t="n">
-        <v>491.9622283665614</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E5" t="n">
-        <v>462.2278875652606</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>1294.102365436318</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2047.406523133708</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>2032.304463753423</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>2028.058744093481</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>214.7967131321751</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>214.7967131321751</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>48.91872033369779</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>48.91872033369779</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>48.91872033369779</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>48.91872033369779</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>308.7021231727439</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.886162364244</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U7" t="n">
-        <v>1151.45316161735</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1151.45316161735</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>879.4267572036415</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>634.035002537054</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>406.6153318511622</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156.3047513715259</v>
+        <v>1256.616618691218</v>
       </c>
       <c r="C8" t="n">
-        <v>122.2026825953533</v>
+        <v>1222.514549915045</v>
       </c>
       <c r="D8" t="n">
-        <v>90.33330181020185</v>
+        <v>786.6047650894895</v>
       </c>
       <c r="E8" t="n">
-        <v>60.59896100890109</v>
+        <v>756.8704242881888</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851288</v>
+        <v>733.0433987378007</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851288</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851288</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851288</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114308</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105276</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>927.0793242105276</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>927.0793242105276</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>927.0793242105276</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1382.132025509625</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1383.544071626547</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1838.596772925644</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925644</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925644</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1618.529545798682</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1359.307243115699</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1359.307243115699</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W8" t="n">
-        <v>954.4517885267326</v>
+        <v>2106.304372256757</v>
       </c>
       <c r="X8" t="n">
-        <v>586.8500415163762</v>
+        <v>1687.161908836068</v>
       </c>
       <c r="Y8" t="n">
-        <v>178.5639178160297</v>
+        <v>1682.916189176125</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498057</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.487219286448</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330012</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599549</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761165</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230041</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851288</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897047</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851828</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842797</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842797</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>842.4466348842797</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>842.4466348842797</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>842.4466348842797</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716307</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114682</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503481</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295688</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>832.5521533496726</v>
+        <v>962.7013733912472</v>
       </c>
       <c r="C10" t="n">
-        <v>659.9904418328975</v>
+        <v>790.1396618744722</v>
       </c>
       <c r="D10" t="n">
-        <v>494.1124490344203</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E10" t="n">
-        <v>324.3544452851575</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>147.6473912469137</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>147.6473912469137</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838376</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851288</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232027</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>398.1100751943383</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>816.3199569622993</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1271.372658261396</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1271.372658261396</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1322.89710409097</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061312</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925644</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631016</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1817.178951631016</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1817.178951631016</v>
+        <v>2464.746330752886</v>
       </c>
       <c r="U10" t="n">
-        <v>1538.745950884121</v>
+        <v>2186.313330005992</v>
       </c>
       <c r="V10" t="n">
-        <v>1251.790442754552</v>
+        <v>1899.357821876422</v>
       </c>
       <c r="W10" t="n">
-        <v>1251.790442754552</v>
+        <v>1627.331417462714</v>
       </c>
       <c r="X10" t="n">
-        <v>1251.790442754552</v>
+        <v>1381.939662796126</v>
       </c>
       <c r="Y10" t="n">
-        <v>1024.37077206866</v>
+        <v>1154.519992110234</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C11" t="n">
         <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E11" t="n">
         <v>1215.548181578287</v>
@@ -5045,10 +5045,10 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>2312.656441940405</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940405</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="N11" t="n">
         <v>2312.656441940405</v>
@@ -5075,16 +5075,16 @@
         <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363477</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774511</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653475</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580458</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412707</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7923094427936</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552876</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111506</v>
       </c>
       <c r="H13" t="n">
         <v>96.73597668111518</v>
@@ -5227,16 +5227,16 @@
         <v>2695.15641754123</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119685</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.84397037279</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V13" t="n">
         <v>1883.888462243221</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829512</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X13" t="n">
         <v>1366.470303162925</v>
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847301</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>516.9624360939379</v>
       </c>
       <c r="G14" t="n">
         <v>386.2829206107589</v>
@@ -5285,19 +5285,19 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.580588915377</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.890463748773</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q14" t="n">
-        <v>4796.389249707368</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5306,22 +5306,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4753.146960239596</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>910.427134029428</v>
+        <v>965.4711828007306</v>
       </c>
       <c r="C16" t="n">
-        <v>737.8654225126529</v>
+        <v>792.9094712839556</v>
       </c>
       <c r="D16" t="n">
-        <v>571.9874297141757</v>
+        <v>627.0314784854784</v>
       </c>
       <c r="E16" t="n">
-        <v>402.229425964913</v>
+        <v>457.2734747362156</v>
       </c>
       <c r="F16" t="n">
-        <v>402.229425964913</v>
+        <v>280.5664206979718</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6381509907407</v>
+        <v>114.9751457237994</v>
       </c>
       <c r="H16" t="n">
         <v>96.73597668111518</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.423949418843</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.468441289274</v>
+        <v>1902.127631285906</v>
       </c>
       <c r="W16" t="n">
-        <v>1449.442036875565</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.050282208978</v>
+        <v>1384.709472205609</v>
       </c>
       <c r="Y16" t="n">
-        <v>1102.245752748415</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2252.656868168567</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C17" t="n">
-        <v>1814.51439535199</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D17" t="n">
-        <v>1378.604610526435</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E17" t="n">
-        <v>944.8298656847298</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>516.9624360939376</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G17" t="n">
-        <v>115.5646047172015</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
         <v>97.15276605397517</v>
@@ -5519,22 +5519,22 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510712</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344108</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302702</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.2320137580464</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C19" t="n">
-        <v>774.6703022412713</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D19" t="n">
-        <v>608.792309442794</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E19" t="n">
-        <v>439.0343056935313</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F19" t="n">
-        <v>262.3272516552875</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111518</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I19" t="n">
         <v>96.73597668111518</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S19" t="n">
-        <v>2695.15641754123</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T19" t="n">
-        <v>2449.276971119685</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.84397037279</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="V19" t="n">
-        <v>1883.888462243221</v>
+        <v>2112.450585778171</v>
       </c>
       <c r="W19" t="n">
-        <v>1611.862057829513</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X19" t="n">
-        <v>1366.470303162925</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y19" t="n">
-        <v>1139.050632477033</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168567</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.51439535199</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D20" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>787.6807519874951</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I20" t="n">
         <v>96.73597668111518</v>
@@ -5753,25 +5753,25 @@
         <v>531.9906641340331</v>
       </c>
       <c r="K20" t="n">
-        <v>1237.596475687546</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510712</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344108</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302702</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
@@ -5789,13 +5789,13 @@
         <v>3911.240480363477</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774511</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653475</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580464</v>
+        <v>1087.134188067672</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412713</v>
+        <v>914.5724765508968</v>
       </c>
       <c r="D22" t="n">
-        <v>608.792309442794</v>
+        <v>748.6944837524195</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935313</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552875</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111518</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H22" t="n">
         <v>96.73597668111518</v>
@@ -5935,25 +5935,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.888462243222</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.862057829513</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="X22" t="n">
-        <v>1366.470303162926</v>
+        <v>1497.494507917315</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477034</v>
+        <v>1278.952806786659</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1209.575145798643</v>
       </c>
     </row>
     <row r="26">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1090.187678435286</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C28" t="n">
-        <v>917.6259669185112</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D28" t="n">
-        <v>751.7479741200339</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E28" t="n">
-        <v>581.9899703707712</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>405.2829163325274</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>239.6916413583551</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6415,19 +6415,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2313.799635050031</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>2026.844126920461</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1754.817722506753</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1509.425967840165</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1282.006297154273</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6461,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>934.6074576929152</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2009.667423945775</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2009.667423945775</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3135.398407382222</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4115.578073952528</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6601,10 +6601,10 @@
         <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F31" t="n">
         <v>496.4142387799021</v>
@@ -6646,16 +6646,16 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176948</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2538.261260176948</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2259.828259430053</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V31" t="n">
-        <v>1972.872751300484</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
         <v>1845.949044954128</v>
@@ -6664,7 +6664,7 @@
         <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1373.137619601649</v>
       </c>
     </row>
     <row r="32">
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1015.727725908489</v>
+        <v>790.3368563937636</v>
       </c>
       <c r="C34" t="n">
-        <v>843.1660143917137</v>
+        <v>617.7751448769885</v>
       </c>
       <c r="D34" t="n">
-        <v>677.2880215932364</v>
+        <v>451.8971520785112</v>
       </c>
       <c r="E34" t="n">
-        <v>507.5300178439736</v>
+        <v>282.1391483292484</v>
       </c>
       <c r="F34" t="n">
-        <v>330.8229638057298</v>
+        <v>105.4320942910047</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752035</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.60800300514</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461862</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795275</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y34" t="n">
-        <v>1207.546344627476</v>
+        <v>982.1554751127508</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6938,22 +6938,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q35" t="n">
         <v>5113.04201353898</v>
@@ -6962,7 +6962,7 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T35" t="n">
         <v>4809.322912595856</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1176.997895781659</v>
+        <v>1035.728611060351</v>
       </c>
       <c r="C37" t="n">
-        <v>1004.436184264884</v>
+        <v>863.1668995435758</v>
       </c>
       <c r="D37" t="n">
-        <v>838.5581914664065</v>
+        <v>697.2889067450985</v>
       </c>
       <c r="E37" t="n">
-        <v>668.8001877171438</v>
+        <v>527.5309029958358</v>
       </c>
       <c r="F37" t="n">
-        <v>492.0931336789</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>326.5018587047277</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>186.5996843951022</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2451.623182457407</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2173.190181710512</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1886.234673580942</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1614.208269167234</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.816514500646</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y37" t="n">
-        <v>1368.816514500646</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="38">
@@ -7154,43 +7154,43 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771586</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004225</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436387</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176683</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580386</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q38" t="n">
         <v>5113.04201353898</v>
@@ -7211,13 +7211,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1083.7810821021</v>
+        <v>1057.146432354979</v>
       </c>
       <c r="C40" t="n">
-        <v>911.2193705853248</v>
+        <v>884.5847208382041</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>718.7067280397268</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>548.9487242904642</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>372.2416702522204</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7366,16 +7366,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W40" t="n">
-        <v>1748.411126173566</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1503.019371506979</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="Y40" t="n">
-        <v>1275.599700821087</v>
+        <v>1248.965051073966</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7418,7 +7418,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423627</v>
@@ -7448,13 +7448,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>1036.216302815309</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>863.6545912985334</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>697.7765985000561</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>528.0185947507933</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>351.3115407125496</v>
       </c>
       <c r="G43" t="n">
         <v>330.8229638057297</v>
@@ -7567,52 +7567,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>188.8405254354695</v>
+        <v>188.840525435469</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066046</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745657</v>
       </c>
       <c r="M43" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O43" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q43" t="n">
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2473.041003752035</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U43" t="n">
-        <v>2404.930957497405</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V43" t="n">
-        <v>2117.975449367836</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W43" t="n">
-        <v>1845.949044954127</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X43" t="n">
-        <v>1600.55729028754</v>
+        <v>1455.454592220188</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601648</v>
+        <v>1228.034921534296</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G44" t="n">
         <v>391.8077842004234</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.31900088266</v>
+        <v>1011.560997133397</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365885</v>
+        <v>838.9992856166219</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674074</v>
+        <v>673.1212928181446</v>
       </c>
       <c r="E46" t="n">
         <v>673.1212928181446</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>496.4142387799009</v>
       </c>
       <c r="G46" t="n">
         <v>330.8229638057298</v>
@@ -7834,22 +7834,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2538.261260176947</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2259.828259430053</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1972.872751300483</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>1700.846346886775</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X46" t="n">
-        <v>1455.454592220187</v>
+        <v>1430.799286538276</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.137619601647</v>
+        <v>1203.379615852384</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>37.02042229785231</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>613.8410568773352</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854742</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>296.9562613211783</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>44.81797281351101</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>33.39342414375216</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314109</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.649193231411</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>1.426309209012743</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314109</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.649193231411</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>288.2218006662683</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314109</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,13 +8617,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.649193231411</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>52.04489477734705</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>955.8742281294894</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807186</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,7 +9167,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>712.7331429833466</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>840.7541590122582</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10130,7 +10130,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10586,13 +10586,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10601,10 +10601,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>314.2706063049986</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10841,7 +10841,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>268.0111327346218</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>268.0111327346212</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>268.0111327346217</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>50.14457787892923</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>124.3589898130757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>268.0111327346211</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>268.0111327346219</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>111.4236523045827</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>268.0111327346218</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>267.5985112554901</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>8.789189859683546</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>161.926849064975</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2.446659489829533</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24889,16 +24889,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>102.9863699957342</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>143.6516710866788</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444078</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>44.28436272291219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.1344859240869</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>4.277894049992082</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>96.56253959275548</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>35.15749310933348</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,10 +25609,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>143.651671086679</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>219.0118993322372</v>
       </c>
       <c r="Y46" t="n">
-        <v>143.6516710866782</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>588622.6620728915</v>
+        <v>592510.3681335665</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>588622.6620728915</v>
+        <v>593611.2628959584</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>589347.7839856384</v>
+        <v>593611.2628959584</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>569227.5943585112</v>
+        <v>569227.5943585113</v>
       </c>
     </row>
     <row r="8">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>593249.6493070738</v>
+        <v>593249.6493070739</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>361899.4409260258</v>
+        <v>361899.4409260257</v>
       </c>
       <c r="C2" t="n">
         <v>361899.4409260257</v>
@@ -26320,19 +26320,19 @@
         <v>361899.4409260257</v>
       </c>
       <c r="E2" t="n">
-        <v>341228.6311308815</v>
+        <v>341228.6311308816</v>
       </c>
       <c r="F2" t="n">
         <v>341228.6311308816</v>
       </c>
       <c r="G2" t="n">
-        <v>341228.6311308816</v>
+        <v>341228.6311308817</v>
       </c>
       <c r="H2" t="n">
         <v>341228.6311308815</v>
       </c>
       <c r="I2" t="n">
-        <v>355628.8692927127</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="J2" t="n">
         <v>355628.8692927127</v>
@@ -26341,7 +26341,7 @@
         <v>355628.8692927128</v>
       </c>
       <c r="L2" t="n">
-        <v>355628.8692927128</v>
+        <v>355628.8692927127</v>
       </c>
       <c r="M2" t="n">
         <v>355628.8692927128</v>
@@ -26353,7 +26353,7 @@
         <v>355628.8692927128</v>
       </c>
       <c r="P2" t="n">
-        <v>355628.8692927128</v>
+        <v>355628.8692927129</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039032</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390642</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200317</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520269</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856134</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784496</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510303</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104672</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>141940.383222885</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>174066.470293212</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
         <v>26563.08616012788</v>
@@ -26448,16 +26448,16 @@
         <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020272</v>
       </c>
       <c r="N4" t="n">
-        <v>27684.0787502027</v>
+        <v>27684.07875020272</v>
       </c>
       <c r="O4" t="n">
         <v>27684.07875020268</v>
       </c>
       <c r="P4" t="n">
-        <v>27684.0787502027</v>
+        <v>27684.07875020269</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814197</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846978</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21149.03433136857</v>
+        <v>-56702.33505890441</v>
       </c>
       <c r="C6" t="n">
-        <v>121042.2663283412</v>
+        <v>139589.0717583416</v>
       </c>
       <c r="D6" t="n">
-        <v>115276.8930123407</v>
+        <v>156929.6161322481</v>
       </c>
       <c r="E6" t="n">
-        <v>17346.90894107922</v>
+        <v>79334.56892819497</v>
       </c>
       <c r="F6" t="n">
-        <v>241146.2026931062</v>
+        <v>241069.6441383094</v>
       </c>
       <c r="G6" t="n">
-        <v>241146.2026931062</v>
+        <v>241069.6441383094</v>
       </c>
       <c r="H6" t="n">
-        <v>241146.2026931061</v>
+        <v>241069.6441383093</v>
       </c>
       <c r="I6" t="n">
-        <v>231861.836303878</v>
+        <v>231838.6119644954</v>
       </c>
       <c r="J6" t="n">
-        <v>139212.0865917273</v>
+        <v>89595.49811172145</v>
       </c>
       <c r="K6" t="n">
-        <v>250226.5519367176</v>
+        <v>236389.31902949</v>
       </c>
       <c r="L6" t="n">
-        <v>241278.9408482073</v>
+        <v>250203.3275973349</v>
       </c>
       <c r="M6" t="n">
-        <v>63435.56532625039</v>
+        <v>115213.3829843315</v>
       </c>
       <c r="N6" t="n">
-        <v>250226.5519367176</v>
+        <v>250203.3275973349</v>
       </c>
       <c r="O6" t="n">
-        <v>250226.5519367176</v>
+        <v>250203.327597335</v>
       </c>
       <c r="P6" t="n">
-        <v>250226.5519367176</v>
+        <v>250203.3275973351</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314109</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052189</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130661</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825286</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052189</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130661</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825284</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052189</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130661</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825286</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>64.37974330849829</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>108.5867600896399</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27439,7 +27439,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>144.7320334827693</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>85.00850797034346</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104.6753308736479</v>
+        <v>69.49843779805423</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27682,7 +27682,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>123.6778513517607</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>11.18956716623569</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>51.02530924622965</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28017,16 +28017,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>116.5098010690838</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>40.15930123557337</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30867,7 +30867,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1.238049662788398e-12</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>37.02042229785231</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>613.8410568773352</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854742</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>296.9562613211783</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>44.81797281351101</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>33.39342414375216</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314109</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.649193231411</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>1.426309209012743</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314109</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.649193231411</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>288.2218006662683</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314109</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35337,16 +35337,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.649193231411</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>52.04489477734705</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35413,13 +35413,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>955.8742281294894</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35653,7 +35653,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807186</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35887,7 +35887,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>712.7331429833466</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36136,13 +36136,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>840.7541590122582</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,7 +36841,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36850,7 +36850,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37306,25 +37306,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,16 +37552,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>314.2706063049986</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.4542274390802</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37956,7 +37956,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
